--- a/AEF_files/99.processed/202504251541---Thailand AEF_2024.xlsx
+++ b/AEF_files/99.processed/202504251541---Thailand AEF_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/99.processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{88192F29-5464-0645-AA47-9624BF94755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8ADF43-75C9-E94E-AD11-9B640EEA02FB}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{88192F29-5464-0645-AA47-9624BF94755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D78027-B030-FF45-BE41-2885C7E0EB54}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="7700" windowWidth="41540" windowHeight="17720" tabRatio="618" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="7700" windowWidth="41540" windowHeight="17720" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="157">
   <si>
     <t>Table</t>
   </si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>CA0003</t>
-  </si>
-  <si>
-    <t>TH</t>
   </si>
   <si>
     <t>First international transfer</t>
@@ -1991,7 +1988,7 @@
         <v>58</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -1999,7 +1996,7 @@
         <v>59</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2015,7 +2012,7 @@
         <v>99</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2023,7 +2020,7 @@
         <v>100</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
@@ -2196,7 +2193,7 @@
         <v>58</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2204,7 +2201,7 @@
         <v>59</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2220,7 +2217,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2228,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -2381,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="216" zoomScaleNormal="139" zoomScaleSheetLayoutView="216" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="216" zoomScaleNormal="139" zoomScaleSheetLayoutView="216" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2404,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -2780,7 +2777,7 @@
   </sheetPr>
   <dimension ref="B3:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="74" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="74" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3087,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>143</v>
@@ -3096,16 +3093,16 @@
         <v>142</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="K9" s="83"/>
       <c r="L9" s="19" t="s">
@@ -3142,10 +3139,10 @@
       </c>
       <c r="X9" s="24"/>
       <c r="Y9" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z9" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="Z9" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="AA9" s="24"/>
       <c r="AB9" s="24" t="s">
@@ -3163,7 +3160,7 @@
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="70" x14ac:dyDescent="0.2">
@@ -3174,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>143</v>
@@ -3183,16 +3180,16 @@
         <v>142</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="19" t="s">
@@ -3229,10 +3226,10 @@
       </c>
       <c r="X10" s="24"/>
       <c r="Y10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z10" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24" t="s">
@@ -3250,7 +3247,7 @@
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4014,8 +4011,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -4295,37 +4321,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81571586-A011-4D4B-AC56-A96383F409A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FC8CCF-5CBD-4E0B-8B92-9C368B340247}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D464470E-C6F2-4D2B-ABD3-CD4882960B9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4342,38 +4373,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81571586-A011-4D4B-AC56-A96383F409A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>